--- a/xlsx/马林县 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/马林县 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>马林县 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_马林县 (加利福尼亚州)</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Pacific</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
   </si>
   <si>
-    <t>協調世界時</t>
+    <t>协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>金門大橋</t>
+    <t>金门大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:California</t>
@@ -125,13 +125,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -155,19 +152,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%B3%A2%E8%90%A8%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -353,61 +350,58 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>旧金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -527,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -641,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -773,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -809,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -1717,10 +1711,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
@@ -1746,10 +1740,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1775,10 +1769,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1804,10 +1798,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1833,10 +1827,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1862,10 +1856,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>8</v>
@@ -1891,10 +1885,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1920,10 +1914,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1949,10 +1943,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1978,10 +1972,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2007,10 +2001,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2036,10 +2030,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2065,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2094,10 +2088,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2123,10 +2117,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2152,10 +2146,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2181,10 +2175,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2210,10 +2204,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2239,10 +2233,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2268,10 +2262,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2297,10 +2291,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2326,10 +2320,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2355,10 +2349,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2384,10 +2378,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2413,10 +2407,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2442,10 +2436,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2471,10 +2465,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2500,10 +2494,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2529,10 +2523,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2558,10 +2552,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2587,10 +2581,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2616,10 +2610,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2645,10 +2639,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2674,10 +2668,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2703,10 +2697,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2732,10 +2726,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2761,10 +2755,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2790,10 +2784,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2819,10 +2813,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2848,10 +2842,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2877,10 +2871,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2906,10 +2900,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2935,10 +2929,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2964,10 +2958,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2993,10 +2987,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3022,10 +3016,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3051,10 +3045,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3080,10 +3074,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3109,10 +3103,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3138,10 +3132,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3167,10 +3161,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3196,10 +3190,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3225,10 +3219,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3254,10 +3248,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3283,10 +3277,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3312,10 +3306,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3341,10 +3335,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3370,10 +3364,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3399,10 +3393,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3428,10 +3422,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3457,10 +3451,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3486,10 +3480,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3515,10 +3509,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3544,10 +3538,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3573,10 +3567,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3602,10 +3596,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3631,10 +3625,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3660,10 +3654,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3689,10 +3683,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3718,10 +3712,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3747,10 +3741,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3776,10 +3770,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3805,10 +3799,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3834,10 +3828,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3863,10 +3857,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3892,10 +3886,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3921,10 +3915,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3950,10 +3944,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3979,10 +3973,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4008,10 +4002,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4037,10 +4031,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4066,10 +4060,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -4095,10 +4089,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4124,10 +4118,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4153,10 +4147,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4182,10 +4176,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4211,10 +4205,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4240,10 +4234,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4269,10 +4263,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4298,10 +4292,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4327,10 +4321,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4356,10 +4350,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4385,10 +4379,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4414,10 +4408,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4443,10 +4437,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4472,10 +4466,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4501,10 +4495,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4530,10 +4524,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4559,10 +4553,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4588,10 +4582,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4617,10 +4611,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4646,10 +4640,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4675,10 +4669,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4704,10 +4698,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4733,10 +4727,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4762,10 +4756,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4791,10 +4785,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4820,10 +4814,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4849,10 +4843,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4878,10 +4872,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4907,10 +4901,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4936,10 +4930,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -4965,10 +4959,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4994,10 +4988,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5023,10 +5017,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5052,10 +5046,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5081,10 +5075,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5110,10 +5104,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5142,7 +5136,7 @@
         <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G137" t="n">
         <v>9</v>
